--- a/resources/attenuation.xlsx
+++ b/resources/attenuation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Robalith 3.35" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,13 +19,14 @@
     <sheet name="soft tissue" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Lead" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Lead Glass" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Water" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
   <si>
     <t>Energy [MeV]</t>
   </si>
@@ -40,9 +41,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00E+000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -117,7 +119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -135,6 +137,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1630,8 +1640,8 @@
   </sheetPr>
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2473,6 +2483,451 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>4078</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>1376</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>617.3</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>615.2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>191.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>82.78</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>81.91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>42.58</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>41.88</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.915</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>5.329</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.944</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.374</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.8096</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.5503</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.3756</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.1557</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0.2683</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.06947</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0.2269</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.04223</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.2059</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0.0319</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0.1837</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.02597</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.1707</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.02546</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.02764</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.02967</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>0.1186</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.03192</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>0.1061</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.03279</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>0.09687</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.03299</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>0.08956</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.03284</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>0.07865</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0.03206</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>0.07072</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>0.03103</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>0.06323</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0.02965</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>0.05754</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>0.02833</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0.04942</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0.02608</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>0.03969</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0.02281</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>0.03403</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>0.02066</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>0.03031</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>0.01915</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>0.0277</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>0.01806</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>0.02429</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.01658</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>0.02219</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.01566</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>0.01941</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0.01441</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0.01813</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0.01382</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>0.01813</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0.01382</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7717,7 +8172,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
